--- a/circuiti 20240307/20240307circuiti.xlsx
+++ b/circuiti 20240307/20240307circuiti.xlsx
@@ -3,13 +3,27 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>R(MOHM)</t>
+  </si>
+  <si>
+    <t>uA</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -32,15 +46,15 @@
   </fills>
   <borders count="1">
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
   <cellXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
@@ -53,9 +67,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -387,74 +398,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface="Arial"/>
         <a:cs typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface="Arial"/>
         <a:cs typeface="Arial"/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -462,7 +413,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -488,7 +439,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -577,7 +528,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -614,9 +565,110 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetData>
+    <row r="1" ht="14.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" ht="14.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5.4699999999999998</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="14.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>2.96</v>
+      </c>
+    </row>
+    <row r="4" ht="14.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>2.1499999999999999</v>
+      </c>
+    </row>
+    <row r="5" ht="14.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="6" ht="14.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="7" ht="14.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="8" ht="14.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>1.1799999999999999</v>
+      </c>
+    </row>
+    <row r="9" ht="14.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="10" ht="14.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0.95999999999999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/circuiti 20240307/20240307circuiti.xlsx
+++ b/circuiti 20240307/20240307circuiti.xlsx
@@ -665,6 +665,86 @@
         <v>0.95999999999999996</v>
       </c>
     </row>
+    <row r="12" ht="14.25">
+      <c r="A12">
+        <v>1.5</v>
+      </c>
+      <c r="B12">
+        <v>3.79</v>
+      </c>
+    </row>
+    <row r="13" ht="14.25">
+      <c r="A13">
+        <v>2.5</v>
+      </c>
+      <c r="B13">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="14" ht="14.25">
+      <c r="A14">
+        <v>3.5</v>
+      </c>
+      <c r="B14">
+        <v>1.9099999999999999</v>
+      </c>
+    </row>
+    <row r="15" ht="14.25">
+      <c r="A15">
+        <v>4.5</v>
+      </c>
+      <c r="B15">
+        <v>1.5700000000000001</v>
+      </c>
+    </row>
+    <row r="16" ht="14.25">
+      <c r="A16">
+        <v>5.5</v>
+      </c>
+      <c r="B16">
+        <v>1.3700000000000001</v>
+      </c>
+    </row>
+    <row r="17" ht="14.25">
+      <c r="A17">
+        <v>6.5</v>
+      </c>
+      <c r="B17">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="18" ht="14.25">
+      <c r="A18">
+        <v>7.5</v>
+      </c>
+      <c r="B18">
+        <v>1.1299999999999999</v>
+      </c>
+    </row>
+    <row r="19" ht="14.25">
+      <c r="A19">
+        <v>8.5</v>
+      </c>
+      <c r="B19">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20">
+        <v>9.5</v>
+      </c>
+      <c r="B20">
+        <v>0.98999999999999999</v>
+      </c>
+    </row>
+    <row r="21" ht="14.25">
+      <c r="A21">
+        <v>10.5</v>
+      </c>
+      <c r="B21">
+        <v>0.93999999999999995</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="0" gridLines="0"/>
   <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>

--- a/circuiti 20240307/20240307circuiti.xlsx
+++ b/circuiti 20240307/20240307circuiti.xlsx
@@ -3,17 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="voltmetro" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="amperometro" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>R(MOHM)</t>
   </si>
@@ -22,6 +23,12 @@
   </si>
   <si>
     <t>V</t>
+  </si>
+  <si>
+    <t>R(OHM)</t>
+  </si>
+  <si>
+    <t>I(A)</t>
   </si>
 </sst>
 </file>
@@ -56,8 +63,9 @@
   <cellStyleXfs count="1">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="2" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -751,4 +759,142 @@
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.1099999999999999</v>
+      </c>
+      <c r="C2">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2.5299999999999998</v>
+      </c>
+      <c r="C3">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.6000000000000001</v>
+      </c>
+      <c r="C4">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2.6400000000000001</v>
+      </c>
+      <c r="C5">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.6600000000000001</v>
+      </c>
+      <c r="C6">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>2.6800000000000002</v>
+      </c>
+      <c r="C7">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="C8">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.7000000000000002</v>
+      </c>
+      <c r="C9">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2.71</v>
+      </c>
+      <c r="C10">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1">
+        <v>2.7200000000000002</v>
+      </c>
+      <c r="C11">
+        <v>248</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
 </file>